--- a/StatPub/AltMetric.xlsx
+++ b/StatPub/AltMetric.xlsx
@@ -14,175 +14,175 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
+    <t xml:space="preserve">pubid</t>
+  </si>
+  <si>
     <t xml:space="preserve">doi</t>
   </si>
   <si>
-    <t xml:space="preserve">pubid</t>
-  </si>
-  <si>
     <t xml:space="preserve">altid</t>
   </si>
   <si>
     <t xml:space="preserve">AltmetricScore</t>
   </si>
   <si>
+    <t xml:space="preserve">u-x6o8ySG0sC</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.26028/cybium/2017-413-003</t>
   </si>
   <si>
-    <t xml:space="preserve">u-x6o8ySG0sC</t>
-  </si>
-  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">u5HHmVD_uO8C</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.3390/jmse6010024</t>
   </si>
   <si>
-    <t xml:space="preserve">u5HHmVD_uO8C</t>
-  </si>
-  <si>
     <t xml:space="preserve">90861092</t>
   </si>
   <si>
+    <t xml:space="preserve">9yKSN-GCB0IC</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1007/s00338-020-01916-8</t>
   </si>
   <si>
-    <t xml:space="preserve">9yKSN-GCB0IC</t>
-  </si>
-  <si>
     <t xml:space="preserve">77314046</t>
   </si>
   <si>
+    <t xml:space="preserve">qjMakFHDy7sC</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1371/journal.pbio.3000702</t>
   </si>
   <si>
-    <t xml:space="preserve">qjMakFHDy7sC</t>
-  </si>
-  <si>
     <t xml:space="preserve">96796121</t>
   </si>
   <si>
+    <t xml:space="preserve">2osOgNQ5qMEC</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1038/s41597-020-00711-y</t>
   </si>
   <si>
-    <t xml:space="preserve">2osOgNQ5qMEC</t>
-  </si>
-  <si>
     <t xml:space="preserve">93205299</t>
   </si>
   <si>
+    <t xml:space="preserve">UeHWp8X0CEIC</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1111/gcb.15610</t>
   </si>
   <si>
-    <t xml:space="preserve">UeHWp8X0CEIC</t>
-  </si>
-  <si>
     <t xml:space="preserve">102574363</t>
   </si>
   <si>
+    <t xml:space="preserve">IjCSPb-OGe4C</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1002/ece3.8613</t>
   </si>
   <si>
-    <t xml:space="preserve">IjCSPb-OGe4C</t>
-  </si>
-  <si>
     <t xml:space="preserve">125050022</t>
   </si>
   <si>
+    <t xml:space="preserve">zYLM7Y9cAGgC</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1111/ddi.13549</t>
   </si>
   <si>
-    <t xml:space="preserve">zYLM7Y9cAGgC</t>
-  </si>
-  <si>
     <t xml:space="preserve">129013899</t>
   </si>
   <si>
+    <t xml:space="preserve">Tyk-4Ss8FVUC</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1016/j.scitotenv.2022.157049</t>
   </si>
   <si>
-    <t xml:space="preserve">Tyk-4Ss8FVUC</t>
-  </si>
-  <si>
     <t xml:space="preserve">130854736</t>
   </si>
   <si>
+    <t xml:space="preserve">YsMSGLbcyi4C</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1016/j.ecolind.2023.109952</t>
   </si>
   <si>
-    <t xml:space="preserve">YsMSGLbcyi4C</t>
-  </si>
-  <si>
     <t xml:space="preserve">142625778</t>
   </si>
   <si>
+    <t xml:space="preserve">eQOLeE2rZwMC</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1038/s43247-023-00766-w</t>
   </si>
   <si>
-    <t xml:space="preserve">eQOLeE2rZwMC</t>
-  </si>
-  <si>
     <t xml:space="preserve">145131808</t>
   </si>
   <si>
+    <t xml:space="preserve">Y0pCki6q_DkC</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1038/s41598-023-28945-x</t>
   </si>
   <si>
-    <t xml:space="preserve">Y0pCki6q_DkC</t>
-  </si>
-  <si>
     <t xml:space="preserve">141934419</t>
   </si>
   <si>
+    <t xml:space="preserve">_FxGoFyzp5QC</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1111/gcb.17105</t>
   </si>
   <si>
-    <t xml:space="preserve">_FxGoFyzp5QC</t>
-  </si>
-  <si>
     <t xml:space="preserve">158391407</t>
   </si>
   <si>
+    <t xml:space="preserve">LkGwnXOMwfcC</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1016/j.ecss.2024.108734</t>
   </si>
   <si>
-    <t xml:space="preserve">LkGwnXOMwfcC</t>
-  </si>
-  <si>
     <t xml:space="preserve">170240233</t>
   </si>
   <si>
+    <t xml:space="preserve">UebtZRa9Y70C</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1007/s00338-024-02544-2</t>
   </si>
   <si>
-    <t xml:space="preserve">UebtZRa9Y70C</t>
-  </si>
-  <si>
     <t xml:space="preserve">166701640</t>
   </si>
   <si>
+    <t xml:space="preserve">0EnyYjriUFMC</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1111/geb.13926</t>
   </si>
   <si>
-    <t xml:space="preserve">0EnyYjriUFMC</t>
-  </si>
-  <si>
     <t xml:space="preserve">169435683</t>
   </si>
   <si>
+    <t xml:space="preserve">5nxA0vEk-isC</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1038/s41467-025-55949-0</t>
   </si>
   <si>
-    <t xml:space="preserve">5nxA0vEk-isC</t>
-  </si>
-  <si>
     <t xml:space="preserve">174135131</t>
   </si>
   <si>
+    <t xml:space="preserve">4TOpqqG69KYC</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1007/s10021-025-00995-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4TOpqqG69KYC</t>
   </si>
   <si>
     <t xml:space="preserve">180489954</t>
@@ -791,10 +791,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
         <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>58</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -805,10 +805,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
         <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>59</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>

--- a/StatPub/AltMetric.xlsx
+++ b/StatPub/AltMetric.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,14 +360,14 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>pubid</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>pubid</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>altid</t>
@@ -375,383 +375,399 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>AltmetricScore</t>
+          <t>title</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10.1111/gcb.17105</t>
+          <t>u-x6o8ySG0sC</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>_FxGoFyzp5QC</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>158391407</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>37</v>
+          <t>10.26028/cybium/2017-413-003</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Shore fishes of French polynesia</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10.1111/geb.13926</t>
+          <t>u5HHmVD_uO8C</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0EnyYjriUFMC</t>
+          <t>10.3390/jmse6010024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>169435683</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>13</v>
+          <t>90861092</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Monitoring litter inputs from the Adour River (Southwest France) to the marine environment</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10.1038/s41597-020-00711-y</t>
+          <t>9yKSN-GCB0IC</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2osOgNQ5qMEC</t>
+          <t>10.1007/s00338-020-01916-8</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>93205299</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>3</v>
+          <t>77314046</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Community composition predicts photogrammetry-based structural complexity on coral reefs</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10.1007/s10021-025-00995-4</t>
+          <t>qjMakFHDy7sC</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4TOpqqG69KYC</t>
+          <t>10.1371/journal.pbio.3000702</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>180489954</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>5</v>
+          <t>96796121</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Delineating reef fish trophic guilds with global gut content data synthesis and phylogeny</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10.1038/s41467-025-55949-0</t>
+          <t>2osOgNQ5qMEC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5nxA0vEk-isC</t>
+          <t>10.1038/s41597-020-00711-y</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>174135131</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>99</v>
+          <t>93205299</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Individual back-calculated size-at-age based on otoliths from Pacific coral reef fish species</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10.1007/s00338-020-01916-8</t>
+          <t>UeHWp8X0CEIC</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9yKSN-GCB0IC</t>
+          <t>10.1111/gcb.15610</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>77314046</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>14</v>
+          <t>102574363</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Juvenile corals underpin coral reef carbonate production after disturbance</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10.1038/s43247-023-00766-w</t>
+          <t>IjCSPb-OGe4C</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>eQOLeE2rZwMC</t>
+          <t>10.1002/ece3.8613</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>145131808</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>94</v>
+          <t>125050022</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Scaling up calcification, respiration, and photosynthesis rates of six prominent coral taxa</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10.1002/ece3.8613</t>
+          <t>zYLM7Y9cAGgC</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>IjCSPb-OGe4C</t>
+          <t>10.1111/ddi.13549</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>125050022</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>8</v>
+          <t>129013899</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Mesophotic coral ecosystems of French Polynesia are hotspots of alpha and beta generic diversity for scleractinian assemblages</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10.1016/j.ecss.2024.108734</t>
+          <t>Tyk-4Ss8FVUC</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LkGwnXOMwfcC</t>
+          <t>10.1016/j.scitotenv.2022.157049</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>170240233</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>3</v>
+          <t>130854736</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Mesophotic depths hide high coral cover communities in French Polynesia</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10.1371/journal.pbio.3000702</t>
+          <t>YsMSGLbcyi4C</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>qjMakFHDy7sC</t>
+          <t>10.1016/j.ecolind.2023.109952</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>96796121</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>47</v>
+          <t>142625778</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Using a multi-criteria decision-matrix framework to assess the recovery potential of coral reefs in the South Western Indian Ocean</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10.1016/j.scitotenv.2022.157049</t>
+          <t>eQOLeE2rZwMC</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tyk-4Ss8FVUC</t>
+          <t>10.1038/s43247-023-00766-w</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>130854736</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>31</v>
+          <t>145131808</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Crustose coralline algae can contribute more than corals to coral reef carbonate production</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10.26028/cybium/2017-413-003</t>
+          <t>Y0pCki6q_DkC</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>u-x6o8ySG0sC</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>0</v>
+          <t>10.1038/s41598-023-28945-x</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>141934419</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Coral reef structural complexity loss exposes coastlines to waves</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>10.3390/jmse6010024</t>
+          <t>_FxGoFyzp5QC</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>u5HHmVD_uO8C</t>
+          <t>10.1111/gcb.17105</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>90861092</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>1</v>
+          <t>158391407</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Functional changes across marine habitats due to ocean acidification</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>10.1007/s00338-024-02544-2</t>
+          <t>LkGwnXOMwfcC</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>UebtZRa9Y70C</t>
+          <t>10.1016/j.ecss.2024.108734</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>166701640</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>11</v>
+          <t>170240233</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Restoring the reef: Coral restoration yields rapid impacts on certain fish assemblages</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10.1111/gcb.15610</t>
+          <t>UebtZRa9Y70C</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>UeHWp8X0CEIC</t>
+          <t>10.1007/s00338-024-02544-2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>102574363</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>19</v>
+          <t>166701640</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Differential strategies developed by two light-dependent scleractinian corals to extend their vertical range to mesophotic depths</t>
+        </is>
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>0EnyYjriUFMC</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ULOm3_A8WrAC</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>0</v>
+          <t>10.1111/geb.13926</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>169435683</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Unifying coral reef states through space and time reveals a changing ecosystem</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10.1038/s41598-023-28945-x</t>
+          <t>5nxA0vEk-isC</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Y0pCki6q_DkC</t>
+          <t>10.1038/s41467-025-55949-0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>141934419</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>41</v>
+          <t>174135131</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Vulnerability of benthic trait diversity across the Mediterranean Sea following mass mortality events</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>10.1016/j.ecolind.2023.109952</t>
+          <t>4TOpqqG69KYC</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>YsMSGLbcyi4C</t>
+          <t>10.1007/s10021-025-00995-4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>142625778</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Zph67rFs4hoC</t>
-        </is>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>10.1111/ddi.13549</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>zYLM7Y9cAGgC</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>129013899</t>
-        </is>
-      </c>
-      <c r="D21">
-        <v>38</v>
+          <t>180489954</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Ocean Acidification Influences Strain Selection and Metabolism of the Benthic Diatom Cocconeis neothumensis var. marina E. Somma and others</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/StatPub/AltMetric.xlsx
+++ b/StatPub/AltMetric.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,14 +360,14 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>doi</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>pubid</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>altid</t>
@@ -375,399 +375,383 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>AltmetricScore</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>10.26028/cybium/2017-413-003</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>u-x6o8ySG0sC</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>10.26028/cybium/2017-413-003</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Shore fishes of French polynesia</t>
-        </is>
+      <c r="D2">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>10.3390/jmse6010024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>u5HHmVD_uO8C</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>10.3390/jmse6010024</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>90861092</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Monitoring litter inputs from the Adour River (Southwest France) to the marine environment</t>
-        </is>
+      <c r="D3">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>10.1007/s00338-020-01916-8</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>9yKSN-GCB0IC</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>10.1007/s00338-020-01916-8</t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>77314046</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Community composition predicts photogrammetry-based structural complexity on coral reefs</t>
-        </is>
+      <c r="D4">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>10.1371/journal.pbio.3000702</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>qjMakFHDy7sC</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>10.1371/journal.pbio.3000702</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>96796121</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Delineating reef fish trophic guilds with global gut content data synthesis and phylogeny</t>
-        </is>
+      <c r="D5">
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>10.1038/s41597-020-00711-y</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2osOgNQ5qMEC</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>10.1038/s41597-020-00711-y</t>
-        </is>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>93205299</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Individual back-calculated size-at-age based on otoliths from Pacific coral reef fish species</t>
-        </is>
+      <c r="D6">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>10.1111/gcb.15610</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>UeHWp8X0CEIC</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>10.1111/gcb.15610</t>
-        </is>
-      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>102574363</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Juvenile corals underpin coral reef carbonate production after disturbance</t>
-        </is>
+      <c r="D7">
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>10.1002/ece3.8613</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>IjCSPb-OGe4C</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>10.1002/ece3.8613</t>
-        </is>
-      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>125050022</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Scaling up calcification, respiration, and photosynthesis rates of six prominent coral taxa</t>
-        </is>
+      <c r="D8">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>10.1111/ddi.13549</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>zYLM7Y9cAGgC</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>10.1111/ddi.13549</t>
-        </is>
-      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>129013899</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Mesophotic coral ecosystems of French Polynesia are hotspots of alpha and beta generic diversity for scleractinian assemblages</t>
-        </is>
+      <c r="D9">
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>10.1016/j.scitotenv.2022.157049</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>Tyk-4Ss8FVUC</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>10.1016/j.scitotenv.2022.157049</t>
-        </is>
-      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>130854736</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Mesophotic depths hide high coral cover communities in French Polynesia</t>
-        </is>
+      <c r="D10">
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>10.1016/j.ecolind.2023.109952</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>YsMSGLbcyi4C</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>10.1016/j.ecolind.2023.109952</t>
-        </is>
-      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>142625778</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Using a multi-criteria decision-matrix framework to assess the recovery potential of coral reefs in the South Western Indian Ocean</t>
-        </is>
+      <c r="D11">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>10.1038/s43247-023-00766-w</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>eQOLeE2rZwMC</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>10.1038/s43247-023-00766-w</t>
-        </is>
-      </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>145131808</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Crustose coralline algae can contribute more than corals to coral reef carbonate production</t>
-        </is>
+      <c r="D12">
+        <v>94</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>10.1038/s41598-023-28945-x</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>Y0pCki6q_DkC</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>10.1038/s41598-023-28945-x</t>
-        </is>
-      </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>141934419</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Coral reef structural complexity loss exposes coastlines to waves</t>
-        </is>
+      <c r="D13">
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>10.1111/gcb.17105</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>_FxGoFyzp5QC</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>10.1111/gcb.17105</t>
-        </is>
-      </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>158391407</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Functional changes across marine habitats due to ocean acidification</t>
-        </is>
+      <c r="D14">
+        <v>37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>10.1016/j.ecss.2024.108734</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>LkGwnXOMwfcC</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>10.1016/j.ecss.2024.108734</t>
-        </is>
-      </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>170240233</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Restoring the reef: Coral restoration yields rapid impacts on certain fish assemblages</t>
-        </is>
+      <c r="D15">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>10.1007/s00338-024-02544-2</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>UebtZRa9Y70C</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>10.1007/s00338-024-02544-2</t>
-        </is>
-      </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>166701640</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Differential strategies developed by two light-dependent scleractinian corals to extend their vertical range to mesophotic depths</t>
-        </is>
+      <c r="D16">
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>10.1111/geb.13926</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>0EnyYjriUFMC</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>10.1111/geb.13926</t>
-        </is>
-      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>169435683</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Unifying coral reef states through space and time reveals a changing ecosystem</t>
-        </is>
+      <c r="D17">
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>10.1038/s41467-025-55949-0</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>5nxA0vEk-isC</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>10.1038/s41467-025-55949-0</t>
-        </is>
-      </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>174135131</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Vulnerability of benthic trait diversity across the Mediterranean Sea following mass mortality events</t>
-        </is>
+      <c r="D18">
+        <v>99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>10.1007/s10021-025-00995-4</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>4TOpqqG69KYC</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>10.1007/s10021-025-00995-4</t>
-        </is>
-      </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>180489954</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Ocean Acidification Influences Strain Selection and Metabolism of the Benthic Diatom Cocconeis neothumensis var. marina E. Somma and others</t>
-        </is>
+      <c r="D19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ULOm3_A8WrAC</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Zph67rFs4hoC</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
